--- a/PythonLec/final_project/book.xlsx
+++ b/PythonLec/final_project/book.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="176">
   <si>
     <t>Title</t>
   </si>
@@ -703,121 +703,6 @@
   </si>
   <si>
     <t>심리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ext</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>건너뛰기 형태로 책을 읽은지 언 2년이 되가지만 이렇게 남기는건 처음이다. 기억도 잘안나서 써도 별내용이나 쓰려나 해서 안쓰려 했다. 그래도 남기는게 나중에 글쓰는데 도움된다고 해서 적어본다. 이책은 사람들의 바라보는 관점을 프레임이라는 하나의 틀로 보고 그 틀에서 발생할 수 있는 일을 서술하고 그에 따른 해결책을 제시해주는 내용이다. 좀더 집중해서 봤더라면 기억이 나겠지만 많은 부분은 기억이 나지 않는다. 하지만 그중에 떠올리라면 프레임을 긍정적으로 보는 방향으로 바꾸면 생각도 긍정적으로 바뀌어 세상을 바라보는 시각이 달라진다는 내용에 깊은 공감을 했다. 아무래도 내가 좀 부정적이다 보니 이 말이 더 공감이 된다. 천성은 본디 바꾸기 어렵다는 말이 많지만 조금씩이라도 바라보는 시각을 바꾸면 자연스레 여러방면에 관심이 생기고 받아들이는게 달라지지 않을까 생각한다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>원래 추리와 범죄 관련에 관심이 많아서 항상 이사람에 대해서 관심은 가지고 있었다. 그러다가 얼핏 &lt;표창원의 시사돌직구&gt; 를 보게되었는데, 마지막회를 하는 것 같았다 . 제목과 똑같이 마지막 피날레 장식을 아주 거하게 한것 같다. 현 정부의 행실 및 태도와 박근혜 대통령 관련해서 열변을 토하는 모습을 봤다. 그걸 보고 이사람이 쓴 책도 있지 않을까 해서 찾아보다 선택한 것이 이 책이다. 제목만 봐선 그저 범죄에 대한 얘기가 나오면서 시작하겠거니 했는데 사실상 자서전에 가깝다는게 맞다. 이책을 선택한 이유는 "끊임없이 공부해라" 이 말에 이끌려 고른게 가장 컸다. 아무래도 나도 약간의 업종 변경을 꾀하며 생긴 불안감에 이 책을 선택한 것 같다 . 내용은 표창원 교수의 어린시절부터 학창시절, 경찰대학, 형사, 박사가 되고 그 이후까지의 이야기를 생생하게 글로 표현해줬다. 생생한 내용으로 봐선 이사람은 일기를 쓰지 않을까 생각이 들 정도로 디테일함이 있었다. 책을 읽으면서 사람을 말도안되는 규율로 강압적으로 대하는 것 보다 인간적으로 대해야 사람의 능력이 올라간다는 그의 생각은 나와 별반 차이가 없어서 좋았다. 그래서 군대가 별로라 생각했고 다시 생각해도 참 부당하게 한 일이 많았던 것 같다. 그리고 공부하는 면에 있어선 재미를 느끼며 열정을 가지고 본인이 어떤식으로 해왔는지에 대해선 많은 반성과 위로를 받은 것 같다. 회사를 나오고 싶어서 나왔고 후회도 안되지만 집에서의 눈치도 보이고 공부를 하다보니 막막한 상황이 지속되니 항상 뭔가에 쫓기고 불안한 마음이 생기게 되었다. 물론 지금도 항상 불안은 하지만 이 책을 통해 내 공부에 집중을 할 수 있는 계기가 된 것 같다. 하고싶은 공부를 할때가 재밌다는 내용을 되새기며 내 공부에 집중을 취할 수 있을 것 같다. 그리고 지금의 내 초조함을 무색하게 만든게 이 사람의 도전정신인 것 같다. 형사로 이름을 날릴 수 있었지만 더 큰 꿈을 위해 나가는 모습을 보며 자극을 받았다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 왜 범죄를 공부하는가 다음에 읽은 표창원 교수의 책이다. 책 내용은 대한민국에서 일어난 큰 사건들의 내용을 발생때부터 해결되는 과정까지 나타낸 내용이다. 해결하며 그 당시의 프로파일링을 통해 범죄자가 왜 그런 범죄를 저질렀으며 글쓴이 본인의 삶과 대비시켜서 나타낸 내용도 인상적이었다. 난 범죄도 문제지만 요즘에 특히 이슈되고 있는 돈 많은 사람들 소위 권력형 범죄에 대해 아주 격멸을 하는 사람이다. 이책도 권력형 범죄에 대해 얘기하고 있다. 권력형 범죄 중 전두환 얘기는 지금도 나오는 얘기다. 책의 ㅐ뇽처럼 결국 정의는 다시 돌아온다 인데 내 생각엔 그런 권력형 범죄의 최상위에 위치한 사람을 검,경이 나서지 않는한 재산환급 받는 것 조차 힘들어 보인다. 국회의원이라는 작자들이 국민 상대로 갑질을 하는데 전직대통령과 짜서 더 갑질을 하지 않을까 생각한다. 정의가 돌아오기 전에 구조개혁이 시급하다는게 내 생각이다. 이런 얘기는 문제가 되겠지만 국민들이 들고 일어나서 라도 바뀌어야 할 곳이 국회의 지금 모습이다. 경제,사회,정치 등의 모든 면에서 아무것도 안하고 있지 않나. 투표에 별로 관심이 없고 정치도 그닥이지만 이번에서야 느끼는게 많아지는 것 같다. 그 생각에 미치게 하는 것에 이 책도 어느정도 도움이 됐다 생각한다. 뉴스를 꼬박보는 것은 아니지만 관심을 가져야 겠다고 생각했다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>요즘은 참 지인 추천으로 읽는 책이 많다. 반성도 되면서 한편으로는 "이렇게 공유해야 내 시야도 더 넓혀지겠지" 라는 생각에 고마움을 느낀다. 이 책은 요즘에 많이 화두되는 머신러닝,딥러닝,인공지능에 대해 10가지의 주제를 가지고 심도있게 얘기를 풀어나가는 내용이다. 글쓴이의 내용이 어느 한면에 치우쳐지지 않고 장단점과 우리가 바라봐야 하는 방향성에 대해 맥을 짚어주고 있다. 정보가 홍수인 시대에서 이젠 로봇이 일상생활에 들어오게 되며 앞으로 더 정보가 넘쳐나게 되며 이런 로봇기술자 들에게 휘둘림 당하는 쪽이 아닌 기술을 같이 생각하며 살아가는 사람으로 바뀌라고 이책은 얘기한다. 그러기 위해선 끊임없이 생각하며 배움에 목마름을 가지고 있어야 한다고 한다. 나도 요즘에 들어 생각을 많이하려 한다. 항상 멍때리며 생각없이 다니며 주입식 처럼 일하며 공부하니 도움이 안되며 내 커리어 상에도 문제가 있을거 같다는 진단때문이다. 차츰차츰 노력해 나가고 있지만 생각하는 것이 하루아침에 되는 것이 아닌 것 같다. 주변에서도 오감을 깨워 자신만의 생각을 가지고 있어야 한다고 한다. 성격상 당장 눈앞에 결과가 보여야 한다는 생각 때문에 더 어려운 것 같다. 이러한 점도 차츰 바꿔 나가면 더디더라도 발전이 있을 거라 생각한다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 모르겠다 한번더 읽어봐야 알 거 같다.</t>
-  </si>
-  <si>
-    <t>글쓴이가 자신이 맡았던 수사과정에서 사람의 심리에 대해 어떤식으로 활용하면 범죄 자백을 받아내는데 수월한지 이를 토대로 비즈니스 관계에서는 어떻게 적용해야 효과적인지와 사람대 사람간의 관계에서도 좀 더 상대방과 친밀감을 유지하기 위한 방법을 알려주는 책인 것 같다. 물론 책 내용 상 범죄수사 얘기가 나오고 나서 비즈니스 상황이라든지 내 생각엔 갑자기 화제가 전환되는 듯한 느낌을 받아서 조금은 억지를 써서 적용하려는건 아닌가 하는 생각도 들었다. 상대방의 생각이나 관심사 등을 통해 상대를 호감으로 돌리는 능력이 부족한 나에게 있어서는 어느정도 도움이 많이 됐다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>전부터 역사에 관심이 있었지만 과거는 인물중심의 특정인물에 꽂히는 형태였다면 요새는 역사의 인과관계를 중심으로 보는 경향이 생겼다. 그러다 보니 과거에 국사시간에 언급되었던 인물이 자연스레 드러나게 되었다. 이 책은 역사의 흐름과정에서 왕에 대한 얘기가 아닌 왕의 책사에 대한 얘기를 풀어나가고 있다. 정도전,하륜,황희,신숙주,조광조,최명길, 체제공,류성룡 에 대한 이야기이다. 책 내용에서 그들이 어떤식으로 두각을 나타나게 되었으며 각각의 시대에서 필요한 정치를 그들만의 색깔로 더 나은 삶을 위해 노력했는지 보여주었다. 조선초기는 아무래도 나라를 새로 세우다 보니 국가시스템과 발전을 위한 초석을 다지는데 집중했지만 중기,후기는 역사가 지속되면서 가져오는 나태함과 오만함에 만들어지는 역경등을 풀어내는데 집중되는 모습을 보이는 것 같다. 여러 역사에 관련된 책을 읽으면서 자연스레 이래서 이런일이 발생했고 더불어 우리 역사뿐만 아니라 다른 나라의 역사도 잠깐 훑을 수 있는 기회가 되는 것 같아서 역사는 읽을수록 좋은것 같다. 이 책에 대한 느낌은 이정도로 적고 이책에서 언급한 각각의 인물들에 대한 장점을 나만의 느낌으로 적어서 끝내고자 한다.  정도전:국가를 세우기 위한 초석을 다진것을 봐도 학문도 학문이지만 몸소 체험한 지식을 통해 전체적인 설계를 하는것에 능통하다. 전체적인 설계라 해서 세세함이 떨어지는 것도 아닌 것을 보면 그만큼 전체를 꼼꼼히 보고 만지고 그려나가는 능력이 타고났다고 본다. 그리고 그에 기반된 추진력또한 어마어마 하다는 것을 느꼈다. 하지만 추진력 만큼 저돌적이고 너무 미래를 내다봐 어쩌면 시대를 잘못 타고났다고 본다.  하륜:학문이 뒷받침 돼지만 역사 과정에서 그의 행보를 보면 역술,사주,풍수지리 등의 다방면의 학문이 그가 사람을 선택하는 과정에서 엄청난 힘을 줬다고 생각한다. 그러면서 적절히 주인에게 장단을 맞춰줘 주인에게 피해가 안되도록 하는 능력도 지녔다고 본다. 하륜을 개인적으로 대단하다 생각해서 더 쓰고 싶지만 앞의 말로 다 설명이 되는 것 같다.  황희: 그의 가장 큰 장점은 책에서도 언급했지만 여러 왕을 모시며 생긴 인적 인프라 그것이 그를 강하게 만든 것 같다. 사람을 만나면 만날수록 사람 대하는 거에 익숙하고 중재를 잘했다는 점에서 얼마만큼 인덕이 있었는지 알 수 있다. 이를 통해 꼼꼼함과 결단력이 있던 세종의 혈기를 심기를 거스르지 않는 선에서 중재해줬다는 것을 보고 어쩌면 세종의 이런 업적이 많고 오래오래 기억될 수 있었던 것에는 황희가 뒤에 있어서 가능했다 라는 생각이 든다. 그렇지 않았으면 세종은 과거의 정도전의 절차를 밟지 않았을까 하는게 내 생각이다.  신숙주:책을 읽으며 세조에 의해 뭍혔거나 아니면 한명회에 가려진 인물이라 생각했다. 어찌보면 학문적으로 관심이 많고 서책 읽는것을 좋아하는 것은 비유가 약간 잘못된 것 같지만 하륜과 비슷하게 보인다. 만약 이시대에 한명회만 있었다면 단종일부터 시작해서 안좋은 말만 쓰여졌을 세조를 신숙주가 살렸다 보는게 맞을 것 같다.  조광조 :  항상 이 이름이 언급되면 역적 이란 생각만 들었다. 하지만 이 책을 보고 생각이 달라졌다. 반정으로 뒤숭숭해 하던 왕을 도와 조선의 제2의 부흥기를 만들려는 점에서 그가 시행한 정치 내용은 괜찮았다. 그도 역시 설계능력과 추진력을 가지고 있었다. 하지만 이런 부류 흔히 정도전 같은 인물들은 너무 튀어서 문제다.   류성룡 : 정도전 만큼이나 높이 평가 받는 인물이다. 전란일 때 그가 있어서 지금의 나라가 있다고 본다. 다방면에 능하여 전란에서의 문제점을 파악함여 정책을 시행하는 것을 보면 그가 얼마나 대단한지를 조선의 병법 체제를 바꾼다든지 적절한 인재 채용 등에서 알 수 있다. 스타크래프트로 비유하면 유닛들 즉 이순신이나 권율이 전투에서 이겼다면 게이머 즉 류성룡은 전쟁에서 적을 이겼다고 본다. 그만큼 선조시대에 핵심 머리 역할을 한 셈이다. 그런데 역사학적으로 보면 세종시대 다음으로 인적자원이 많았던 선조시대이다. 선조가 성심이 유약하고 안좋게 평가되지만 왕의 재능을 봐선 똑똑하게 보여진 인물이다. 징비록을 보면 선조에 대해 안좋게 쓰인 것을 보면 선조를 그렇게까지 좋아하거나 왕으로써 신뢰를 하지 않았단 것을 알 수 있다. 어찌보면 이런 점에서 선조와 류성룡 이 둘에 대해 역사적으로 더 살펴봐야 하지 않을까 생각한다.  최명길 : 연예인 최명길만 떠오른다. 시대적 상황으로만 봐선 인조의 무능함에 이런 충신이 묻혔다고 보는게 맞겠다. 시대가 안좋았다는 점에선 정도전 만큼의 평가를 받아야 한다. 동아시아의 정세를 판단하여 양반의 지위와 명분에 흔들리지 않고 백성을 생각했다는 것에 큰 점수를 주고 싶다.  체제공: 정조와 더불어 조선 후기 르네상스를 이룬 인물이다. 정조를 아들처럼 대하여 그가 기반을 잘 닦을 수 있도록 관직까지 버릴 정도의 강단있는 인물이다. 무엇보다 자신이 궁하게 살아서 인지 백성들의 생활에 대해서 정책을 잘 만들었던 것 같다. 정치가로썬 그의 이름을 떠올리긴 힘들지만 정조의 분신이자 경제학자로썬 여타 다른 킹메이커 보다 뛰어나다고 본다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>나름 심리학을 전문적인 얘기가 아닌 일상적인 얘기로 쉽게 다가가려 쓴 책인 것 같지만 더 어렵다. 한 단어당 몰입될만 하면 끝나게 되고 누가 뭘 했고 누가 뭘 예기했고 이런걸 더 얘기를 많이해서 중간에 읽다보면 집중력이 흐트러진다. 내가고른 제일 최악의 책인 것 같다. 쉽게 쓰려다가 너무 많은 부분을 얘기하려고 해서 내용전달이 안되는 것 같다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 사회에 있는 청년실업 및 사회 빈부격차에 대해 언론에서 떠들어 대는 일반적인 얘기를 다루기 보다 철저한 통계적 접근을 통해 문제점을 찾아가는 방식으로 풀어 쓴 책이다. 이 책을 통해 통상적으로 소득이라고 분류되는 종류들에 대해  쉽고 정확하게 이해가 된거에 대해 배움이 있었다고 본다. 한편으론 앞으로 우리 세대의 미래가 더 암울하다고 깨어나야 한다고 하는 대목에서 덩달아 피가 끓게 되었다. 기성세대의 잣대로 세운 취업기준을 통해 많은 20대들이 피해를 받는것을 보면 나도 참을 수 없을 때가 많다. 솔직히 말해서 국회든 회사든 늙은이 들이 위를 차지하며 그저 로비와 청탁,정치많을 일삼으며 밑에 사람에겐 그저 따라만 오면 된다 식의 행동들 때문에 이런 일이 되물림 되는 것 같다. 어쩌면 빠른 경제 성장 속에서 이런 청탁,정치,비리가 만연해도 눈감고 성장만 하다보니 그저 자연스러운, 안하면 괜히 이상해지는 현상이 발생하게 된 것 같다. 사람은 자신의 위치가 바뀌면 보이는 시야가 달라진다는데 나도 이럴까봐 겁이 난다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"나는 프로그래머다"의  "디지털 노마드" 라는 주제의 방송을 듣다가 노마드 라는 것에 관심이 생겼다. 유목민 이란 의미로 한 곳에 정착하지 않고 생활하는 것을 말한다. 그러고 보면 요즘 시대는 한가지의 장기만을 가져선 장기적으로 일을 하기가 어렵다고 생각한다. 잘하는 장기가 있고 그를 기반으로 부수적인 장기를 가지고 있어야 할 것 같다. 이 책은 예전의 일의 개념과 현재의 일의 개념에 대해 얘기한다. 이상하게 내가 고른 책은 집중이 잘 안되지만 현대에서의 일에 대한 많은 생각을 느끼게 하는 책이다. 이 책을 읽으면서 책의 내용정리가 아닌 내 머릿속의 생각이 많이 바뀌었다. 비록 고만고만한 개발실력을 가지고 있지만 이것의 장기를 살리며 개발일 뿐만 아니라 다른쪽으로도 끊임없이 자기계발을 통해 준비를 해야 함을 많이 느꼈다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지인이 추천한 책이다. 독서 허접인 나에게 딱 맞는 책이라 생각한다. 그 맞는 책이라는게 글씨크기도 어느 정도 한 몫을 한 것 같다. 이 책은 "시간이 없어서 못 읽어요", "읽는게 적응이 안돼요" 등의 독서에 대해 생각은 있지만 여러 이유로 포기하는 사람들에게 권하는 일종의 독서가이드 같은 책이다. 계독,다독,남독,만독,재독,엄독 등의 카테고리로 읽는 방법을 소개하는 것이 인상적이었다. 이런 방법들로 읽어 가는 것도 중요하지만 이 책에서 가장 처음에 강조한 것은 생각이 깨어있어야 한 다는 것이다. 그저 흘러가는 대로가 아닌 끊임없는 생각을 통해 자신을 바꿀 수 있는 뇌로 바꾸라는 것이다. 요즘 일을 하지 않아서 인지 생각하는 일이 많아지고 그로 인해 뭐가 부족하며 채워야 함을 생각하게 된다. 그런 면에서 이 책을 읽으면서도 많이 뿌듯했다. 요즘에 들어 후회하는게 책을 학생에 많이 읽었으면 어땠을까 하는 푸념섞인 얘기를 하곤 한다. 그에 대한 반성을 하며 수입은 없지만 전자책이든 책을 빌려서 읽음으로써 학생때의 못다한 독서의 혼을 불태운다고 생각한다. 그런데 이 책 내용이 구구절절 옳은 이야기지만 같은 일을 하더라도 사람마다 스타일이 다르듯이 내 스타일이 있는 것 같다. 내 스타일이 틀렸다 생각할 때 다시 이 책을 보며 또다른 독서의 혼을 불러 일으키지 않을까 생각한다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 책은 감색하다가 읽기 괜찮을 것 같다는 생각이 들어서 읽기 시작했다. 내용은 이 세기에 위대하다고 평가되는 이들에 대해 독창성과 창의성이라는 단어를 통해 위대한 이들은 어떤식으로 독창적이며 창의적인지에 대해 나열한 책이다. 물론 그 와중에도 실패한 창의성에 대해 얘기하며 그에 대해 아떤식으로 대처해야 하는지 예기 해준다. 아쉬운 점은 내가 지식이 별로 없어서 인지는 몰라도 인문, 정치 관련 인물 등에 대해  얘기를 할 때는 집중이 되지 않았다. 창의성을 요하거나 생각이 많아 질때 다시 한 번 읽어보면 좋을 것 같다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지인의 추천으로 읽게된 책이다. 넙죽 받는 스타일은 아닌데 책 선택에서 나보다 좋은 선택을 하는 사람이면서 저자가 시골의사 박경철 이라는 점에서 끌렸던 책이다. 이 책은 말 그대로 자기에 대한 혁명을 이야기하는 책이다. 혁명을 위해선 새로운 상황에 자기자신을 내던져야 한다고 한다. 그 중에 하나가 독서이며 어떤식으로 독서를 해야 하는지도 얘기를 해준다. 독서예기에 요즘 책을 읽고 있는 나로써도 괜스레 뿌듯해지는 기분이 들었다. 하지만 이 책을 읽으면서 가장 내 머리를 스친건 자기자신의 장점과 단점을 통해 더 나은 사람이 되는 것에 대한 방법을 제시하는 것이었다. 그 방법이 전혀 터무니 없는 것도 아니고 필자가 실행하는 과정을 통해 방법을 제시해주고 있었다. 아마도 내 처지가 백수이고, 어려운 학문을 하다 보니 쌓여있는 스트레스와 뷸안감을 해소하기 위한 그 무언가가 필요하다 생각했기 때문에 그런것 같다. 책을 읽어나가면서 한번 실천해봤다. 정말 낯간지럽고 사소한 일인거 같았는데 막상 적다 보니 나에대해 객관적이 되고 있었다. 필자의 말대로 단점은 무궁무진 하게 나왔으며 그 와중에 남들이 나를 봤을때 좋고 칭찬한 점도 찾게 되었다. 그렇게 적다 보니 자연스레 뭐가 나의 문제점인지 파악을 하게되었고 그를 해결하는 방법을 적어나가게 되었다. 물론 지금 시대에 살면서 돈을 안번다는건 힘든 일이다. 아직도 피가 말리고 항상 불안하지만 나의 단점을 없애자고 생각하며 내용을 적고 나니 마음이 후련해지는 느낌을 받았다. 적고 나서 부터 싫어하는 사람이나 새로운 상황, 내가 못할 것 같은 상황에 대해 조금은 긍정적으로 변한 것이었다. 아직은 한참 멀었지만 시작이 중요한 것이라 생각한다. 왠만하면 인생책 이라고 생각 하지도 않고, 지인에게 고맙다고 하지도 않는데 두가지를 다하게 된 책이다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지인의 추천으로 읽은 책이다. "나는 프로그래머다" 에 출연한 서울대 이광근 교수의 책이다. 난 교수라 하면 대체적으로 안좋은 시선을 갖고 있다. 시대에 뒤떨어지는 사람들이라 생각하기 때문인 것 같다. 책의 내용은 컴퓨터가 왜 생겼으며 컴퓨터를 활용한 전반적인 기술이 어떤식으로 생겨났는지 튜링기계 부터 어떤식으로 기술이 발달되었고 그 기술에 대해 쉽게 서술하면서 자연스럽게 오늘날의 컴퓨터가 되었다는걸 훑어주는 책이다. 한 마디로 컴퓨터의 역사와 그에 대한 미래를 얘기해주는 책이다. 저자가 컴퓨터 과학에 대한 지식이 없어도 이해할 수 있도록 쉽게 쓰려고 노력한 흔적이 엿보인 책이었다. 하지만 약간의 컴퓨터 지식을 가지고 있는 나는 이 책이 어렵게 느껴졌다. 좀 더 집중하고 알아듣는 용어가 많았다면 유익하지 않았을까 하는 생각이 드는 책이다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>시민의 교양을 읽으며 유명하다고 해서 읽은 책이다. 본래는 이 책을 읽고 시민의 교양을 읽는 것이 맞으나, 순서상 이렇게 됐다. 채사장이라는 저자의 책을 읽다 보니 모든 생활을 경제의 관점에서 바라보는 경향이 강하다. 어찌보면 정말 지루하고 어려울 법한 얘기지만 이 사람은 정말 쉽게 설명을 잘해준다. 이 책은 세상을 살아 가면서 지적인 대화를 위해 독자들에게 특정 주제를 몇개 정하여 설명을 해준다. 주제가 많다보니 2권으로 나누어져 있다. 그 중 첫번째 현실세계를 다루는 주제인 역사,경제,정치,사회,윤리 로 시작한다. 처음 보는 사람은 이런 딱딱한 책이 있을까 싶을 정도로 거부감이 드는 주제가 아닐 수 없다. 하지만 위에서 언급했듯이 실생활에서 발생할 수 있는 문제에 대해 예를 들면서 설명을 해준다. 각 주제가 다르다고 해서 다르게 설명하는 것도 아니고 경제의 관점에서 5가지의 주제를 설명하기 때문에 맥락이 끊기지도 않는다.  내용으로 와서 역사는 경제에서 생산수단과 생산물이라는 개념을 통해 고대,중세,현대 시대로 나누어 설명을 하고 있다. 생산수단을 소유하는 자가 그 시대에서 권력을 행사하며 자연스럽게 권력자와 피지배자로 나누어 지는 형태를 잘 나타냈다. 경제에서는 4가지의 경제 체제인 초기자본주의 , 후기자본주의, 신자유주의, 공산주의에 대한 설명을 해준다. 이 4가지에 대해 정부의 개입에 따라 나누어 설명을 한다. 정치에서는 경제에서 배운 4가지 경제체제와 진보, 그리고 보수라는 개념을 가지고 설명을 한다. 사회는 이기주의와 전체주의 라는 개념을 설명 하고 있다. 그리고 마지막으로 윤리에서는 윤리라는 당위 명제성을 가진 개념을 의무론과 목적론으로 구분하여 설명을 하고 있다. 책을 읽긴 했지만 아직 머릿속에 정리가 잘 되지는 않는다. 여러번 읽을 수록 알아가는 것이 많은 책이다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>책울 손에 놓지 않기 위해 서점에서 찾다가 발견한 책이다. 일단 저자 이름이 특이해서 끌렸지만 제목을 보고 손을 놓으려다가 독자로 하여금 주인공이 되게 하여 상황을 제시해주고 그에 대해 설명을 해주는 느낌이 들었다. 교양을 예시를 통해 배운다는 것에 끌려 선택했다. 세금,국가,자유,직업,교육,정의,미래 이 7가지에 대해 상황과 그 상황에 대해 설명을 해주는 책이다. 세금은 세금을 올리고 내리느냐에 따라 누군가는 이득을 보며 누군가는 손해를 본다는 것에 대해 설명해준다. 세금을 올리면 노동자들은 이득을 보지만 자본가들은 손해를 본다. 세금을 올린다는 것은 정부의 개입이 활발하게 일어나고 복지가 좋아진다. 반면에 이와 반대로 세금을 낮추면 자본가는 이득이지만 노동자는 손해다. 시장의 자유가 형성되며 경제성장을 이룰 수 있다. 다음은 국가라는 개념의 설명이다. 국가,나라 등의 단어의 쓰임새와 차이점에 대해 설명하며 앞서 세금의 증감에 따라 나누어 지는 국가의 형태에 대해 설명해준다. 자유는 시민의 탄생에 대한 얘기와 더불어 적극적 자유와 소극적 자유의 차이점을 생산수단의 소유 여부라는 관점에서 설명을 해주고 있다. 직업은 4가지의 종류로 역시 생산수단을 가지냐 아니냐에 따라 사업가,투자가,비임금 노동자, 임금 노동자 등으로 나누며 이에 대한 설명을 해 주고 있다. 교육은  진리의 존재 위치(내부,외부) 에 따라 나누어 그에 따른 교육의 특징 및 장단점을 설명하고 있다. 정의는 윤리관점 에서의 정의(수직적,수평적) 와 이를 토대로 경제 관점에서의 정의(차등적배분, 균등적배분) 에 대한 설명을 한다. 마지막으로 미래는 여태까지 경제적 관점에서 본 주제들을 가지고 그에 따라 사회가 어떤식으로 만들어지는지 나타낸다. 그리고 이런 사회들을 통해 앞으로 우리가 어떤 선택을 통해 어떤 사회를 만들건지를 독자에게 결정을 내려줌으로써 독자더러 생각을 하게 한다. 딱딱하고 재미 없을 수도 있는 내용들을 예시와 그림을 통해 쉽게 접근하도록 했다는 점에서 다른 사람들 에게도 추천하고 싶다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지대넓얕의 현실 세계 너머 편이다. 1권은 아무래도 귓동냥으로 들은게 있어서 인지 쉬운설명과 함께 보니 이해하기가 수월했다. 그런데 현실 세계 너머 편은 잘 와닿지 않는 내용을 얘기하니 많이 혼란이 왔다. 책의 목차는 진리,철학,과학,예술,종교,신비로 구성되어 있다. 책의 시작은 진리라는 주제를 통해 절대적 진리 와 상대적 진리에 대해 설명을 하며 이 두 진리를 통해 다음에 시작되는 각 개념을 설명하는 형식으로 이야기를 풀어나갔다. 비록 머리에는 남지 않지만 몇번 더 읽게 되면 이 현실너머 편도 많이 알지 않을까 생각한다. 이 책을 읽다 보니 저자를 검색했을 때 나왔던 기사가 생각났다. "책을 읽을 때 쉬운 것을 읽는 것이 아니라 어렵게 읽어야 좋다." 이 얘기는 독자가 읽기 쉬운것만 읽어서는 책을 읽는 내내 생각을 안하게 되기 때문에 어려운 것을 읽어서 내용이 기억 안나더라도 생각하며 읽으라는 것인 것 같다. 나도 지금은 기억에 안나지만 나중에 다시 한번 읽어 볼까 한다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>너무 머리써야 하고 생각해야 하는 책들을 읽어서 쉬어갈겸 선택한 책이다. 그런데 쉬어가기엔 책의 두께가 좀 두꺼웠다. 예전에 책을 막 읽기 시작했을 때 읽었던 '창문을 넘어 도망친 100세 노인' 을 읽었을 때 재미있고 좋은 기억이 있었고, 표지도 그 책과 비슷하여 선택했다. 내용은 어느 한 요양소에 있는 5명의 노인들이 자신들을 가두고 있다고 느껴서 작은 일탈 부터 시작해서 나중에는 은행을 터는 내용이다. 메르타라는 할머니를 중심으로 이야기 전개가 이루어 진다. 이야기 중간에 벌써 감옥에 갔나 해서 싱겁게 끝나나 했더니 감옥에서 다시 요양소 복귀 하며 은행을 털것을 미리 계획하면서 2차적인 범죄가 진행되는게 흥미진진하다. 읽어보면 그저 노인들의 일탈을 얘기하는 것 같지만 그 속에는 자기들 이익을 챙기는 부자들에 대한 소심하지만 통쾌한 복수도 느낄 수 있는 책이었다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>생각이 많아지다 보니 책 읽을때도 굳이 생각하기 싫어지고 그냥 물 흘러가듯이 읽기 위해 택한 또 한권의 소설이다. 재밌게 읽으려 했으나 막상 ebook으로 보니 두께가 엄청났다. ebook의 문제점이다. 그래도 소설이니 굵직한 줄거리만 알면 부담없겠다 생각하며 읽었다. 내용은 한때 유망한 레슬링 선수가 될뻔한 학생이 부모를 먼저 떠나보내게 되고, 마약에 손을 대며 살인을 저질러서 감옥에 살게 되었다. 그렇게 마약중독자란 표식을 달고 살면서 모든 살인 사건에 항상 연관되어 조사를 받아가는 과정에서 자기 아버지가 어떻게 죽게됐는지를 알게 되며 어느 순간 약을 끊게 되었다. 그 후 감옥을 나가기 위해 같이 생활한 죄수에게 나가도록 부탁한 뒤 감옥을 탈출하게 된다. 그 뒤로 자기 아버지를 죽인 자들을 차례로 심판을 해 나가는 내용이다. 그들을 죽이면서 차츰 내막을 알게 되어 아버지의 친한 친구가 아버지를 죽인것도 알게 되었다. 난 주인공이 다 죽이고 잡혀 들어가는 걸로 끝날 줄 알았지만 경찰의 눈을 피해 탈옥 후 만났던 여자와 같이 떠나는 결말이 나올 줄은 몰랐다. 초반에는 등장인물도 많아서 정신이 없었는데 그 단락내에서 이전 단락의 내용을 생각나도록 작가가 글을 잘 쓴거 같다. 책만 미친듯이 읽었다면 한 이틀이면 끝났을 듯한 아주 빠져드는 내용의 책이었다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>철학 같이 생각이 많은 책이 힘들다는 말에 지인이 추천해준 책이다. 이름부터 빅퀘스천 생각을 요구하게 하는 책이라 생각했다. 내용은 "우리 시대의 31가지 위대한 질문" 이라는 주제로 하나하나의 주제에 대해 과거의 사실과 함께 설명을 해주는 내용이다 . 책을 받을 때부터 표지가 딱딱해서 재미없고 지루할 거란 생각이 먼저 들었다. 실제 읽었을때도 재미없고 딱딱했다. 내용을 처음부터 흐름있게 읽는 나로서는 주제가 끊기는 느낌이 많이 들어 초반에 방황했지만 중반을 넘어가며 그때 그때 주제에 대해 읽으며 생각하며 되는구나 하며 읽었던 것 같다. 이후론 어렵긴 했지만 생각하며 읽을 수 있다는 점에서 뿌듯했던 것 같다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tv에 소개된 책이기도 하고 유명한 마이크 센델의 책이기도 해서 선택한 책이다. 이 책은 "정의" 라는 의미에 대해 다양한 시각으로 생각하게 해주는 책이다. 극단적인 면도 있지만 선택해야 하는 특정상황에 대해 독자로 하여금 어떤 상황을 선택하게 할지 같이 생각하게 하며 그에 대한 설명도 같이 해준다. 책이 난이도가 있어서 읽는데 잘 들어오지 않지만 독자가 스스로 생각할 수 있게 하는 면에선 최고의 책인 것 같다. 내용이 좀 이해가 안되는 부분이 있어서 듬성듬성 읽은 것이 후회된다. 나중에 다시 한 번 읽어보면 이해하는 폭이 좀 더 넓어질 것 같다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크 샌댈 책을 읽고 머리좀 식힐 겸 선택한 책이다. 요 네스뵈 이 작가의 책은 대부분 5~600 페이지에 달하는 책들만 있었는데 이 책은 부담없이 읽을 수 있는 154페이지 분량이다. 책의 내용은 청부 살인 업자의 주인공인 올라브 요한센의 이야기이다. 돈을 받고 살인을 해주던 어느날 그의 보스가 자신의 아내를 죽여 달라면서 이야기의 전개가 달라지게 된다. 보스의 아내를 숨어서 지켜보다 사랑에 빠지게 된 것이다. 이 때문에 보스가 시킨대로 해야할지 아니면 그녀를 데리고 도망가야 할지에 고민하다 도망을 치게 된다. 하지만 도망치기 위해선 자기보스의 손아귀에서 벗어나야 했기 때문에 보스를 죽이게 됐다. 보스가 죽었기 때문에 사랑하는 사람과 함께 떠날 수 있어서 좋았지만 결국은 그녀도 주인공을 배신하게 된다. 어떻게 보면 사랑을 택해서 그녀를 얻었지만 결과적으로 주인공은 모든 것을 잃게 된 것은 아닐까 하는 생각이 든다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>블러드 온 스노우와 이어지는 책이다. 블러드 온 스노우는 하프만 세력의 한 킬러에 대한 얘기였다면 이 책은 뱃사람 세력의 한 킬러에 관한 이야기이다. 자신의 딸인 안나의 목숨을 구하기 위해 돈이 필요해 보스의 명령을 어기고 돈을 챙기고 코순 이라는 마을에 도착하면서 이야기가 시작된다. 거기서 크누트라는 아이와 그의 엄마인 레아, 마을 주민인 마티스를 알게 되면서 이야기의 전개가 이어진다. 처음에는 자신의 신분을 속이기 위해 그저 사냥하러 왔다고 했지만 뱃사람의 사람들이 찾아오는 일이 생기고 하면서 숨길 수 없는 위치에 처해 있었다. 하지만 그렇게 시간이 지나며 레아 라는 여자와 사랑에 빠지고 그녀의 죽었던 남편을 죽이면서 레아와 크누트 그리고 주인공이 다 정리하고 마을을 떠나는 내용이다. 첫 번째 이야기는 왠지 모르게 슬프게 다가왔지만 이 내용은 결말이 따뜻하면서도 뿌듯하게 끝난 거 같아 책을 다 읽고 나서 내심 기뻤다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이스북을 돌아다니다가 알게 된 책이다. 그냥 재미삼아 페이스북을 돌아다니는데 어쩌다 우연으로 책을 발견했다. 일단 제목에서부터 끌렸다. 구매하면서도 어쩌면 흥미도 못붙이겠구나 라는 생각을 가졌지만 읽으면서 생각이 달라졌다. 이 책은 잘나가고 성공한 사람들의 책이다. 다만 그 성공한 사람들이 반듯한 삶을 산 사람들에게서 나온 얘기가 아니라 해적, 마약범 , 조직폭력배 등의 나쁜 사람에게서 나온 성공이라는 것이 특이했다. 작가는 이 책을 쓰며 이렇게 말했던 것 같다. "이젠 착하고 성공한 사람들의 성공담은 지겹지 않나요?" 이 말은 책의 내용을 보고 금방 깨달았다. 작가가 인터뷰한 사람들의 과거부터 시작해서 어떤식으로 생각하고 행동함으로써 나오는 그들의 공통점을 지금의 스티브잡스나 실리콘밸리의 성공한 사람들에 빗대어 봤을 때 이들은 절대 뒤떨어지지 않고 오히려 그들보다 더 진취적이며 생각자체가 다르다고 이야기 한다. 그 중에서 와닿는 것이 해커처럼 생각하라와 허슬 이라는 말이 와닿았다. 기존의 생각이나 관념을 버리고 새롭게 생각하여 일을 수행하면 엄청난 결과가 나타난다는 것이다. 아쉬운 점은 인상은 깊게 받았는데 구구절절 기억이 잘 안난다는 점이 아쉬웠다. 나중에 다시한번 읽어야 겠다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>또라이들의 시대를 읽은 후 특이한 것에 끌려 검색하다가 찾은 책이다. 이 책은 사이코패스라는 질병이 아닌 질병을 가진 이들 중에 일반사람보다 뛰어난 사람들이 많다는 걸 보여준 책이다. 사이코패스라는 주제로 필자는 직접 사이코패스들을 만나 인터뷰를 하는 동시에 뇌과학과 사회심리학을 통해서 사이코패스들의 심리를 나타낸 내용인데 , 책에선 스티브 잡스에 대해서도 사이코패스러 지칭한다. 일반적인 생각으로 볼 수 있는 사이코패스=연쇄살인범 이라는 수식을 깨게 해주는 느낌을 받았다. 그러면서 성공한 사이코패스들을 "기능적 사이코패스" 들이라 지칭하게 된다. 이런 기능적 사이코패스들이 성공할 수 밖에 없는 이유를 7가지 특징(무자비함,매력,집중력,강인한 정신, 겁 없음, 현실 직시, 실행력)을 얘기한다. 이런 소재들이 재미있으면서도 책을 읽으며 약간의 편견을 껜 것이 사이코패스는 타인의 감정을 모르는 것이 아닌 공감능력이 일반 사람보다 떨어진다는 것이다. 즉 상대의 기분을 모르는 것이 아니고 너무 잘 알기 때문에 그런 감정들을 이용하여 범죄를 저지른다고 한다. 또 다른 하나는 정의란 무엇인가 에서 나온 공리주의에 대한 예를 사이코패스 시각으로 봤을 때 이야기이다. 기차가 철도위를 달리는데 두갈래길에 각각 1명과 5명의 사람이 있는 경우와, 기차가 달려오는 라인에 있는 5명과 그 난관 위의 한명의 사람이 있을 때 이 두가지 상황에 대해 일반 사람들의 경우 고민을 하게 되지만, 사이코패스들은 고민없이 1명을 희생한다고 한다. 그 한명의 가족들이 불쌍하겠지만 5명이 사는게  계산상으로 좋은거가 아니냐면서 말이다. 소름이 돋는게 원래 인간의 감정이란 수치화가 될 수 없기 때문에 그애 대한 중요한지 여부를 판단할 수 없는데 사이코패스들은 수치화를 통해 판단을 내린 다는 것이다. 보면서 흥미롭고 인상적인 얘기였다. 이 책 덕분에 사이코패스 라는 것에 관심을 가지게 되었다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1268,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -1364,9 +1249,7 @@
       <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="17" t="s">
-        <v>176</v>
-      </c>
+      <c r="X1" s="17"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1428,9 +1311,7 @@
       <c r="W2" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="X2" s="17" t="s">
-        <v>177</v>
-      </c>
+      <c r="X2" s="17"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1497,9 +1378,7 @@
       <c r="W3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="17" t="s">
-        <v>178</v>
-      </c>
+      <c r="X3" s="17"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -1566,9 +1445,7 @@
       <c r="W4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="17" t="s">
-        <v>179</v>
-      </c>
+      <c r="X4" s="17"/>
     </row>
     <row r="5" spans="1:24" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -1632,9 +1509,7 @@
       <c r="W5" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="X5" s="17" t="s">
-        <v>180</v>
-      </c>
+      <c r="X5" s="17"/>
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -1699,9 +1574,7 @@
       <c r="W6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X6" s="17" t="s">
-        <v>182</v>
-      </c>
+      <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:24" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1768,9 +1641,6 @@
       <c r="W7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="X7" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -1834,9 +1704,7 @@
       <c r="W8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="X8" s="17" t="s">
-        <v>183</v>
-      </c>
+      <c r="X8" s="17"/>
     </row>
     <row r="9" spans="1:24" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -1901,9 +1769,7 @@
       <c r="W9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="X9" s="17" t="s">
-        <v>185</v>
-      </c>
+      <c r="X9" s="17"/>
     </row>
     <row r="10" spans="1:24" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -1968,9 +1834,7 @@
       <c r="W10" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="X10" s="17" t="s">
-        <v>184</v>
-      </c>
+      <c r="X10" s="17"/>
     </row>
     <row r="11" spans="1:24" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -2099,9 +1963,7 @@
       <c r="W12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="X12" s="17" t="s">
-        <v>186</v>
-      </c>
+      <c r="X12" s="17"/>
     </row>
     <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
@@ -2163,9 +2025,7 @@
       <c r="W13" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="X13" s="17" t="s">
-        <v>187</v>
-      </c>
+      <c r="X13" s="17"/>
     </row>
     <row r="14" spans="1:24" ht="16.5" customHeight="1">
       <c r="A14" s="10" t="s">
@@ -2229,9 +2089,7 @@
       <c r="W14" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="X14" s="17" t="s">
-        <v>189</v>
-      </c>
+      <c r="X14" s="17"/>
     </row>
     <row r="15" spans="1:24" ht="16.5" customHeight="1">
       <c r="A15" s="10" t="s">
@@ -2300,9 +2158,7 @@
       <c r="W15" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="X15" s="17" t="s">
-        <v>188</v>
-      </c>
+      <c r="X15" s="17"/>
     </row>
     <row r="16" spans="1:24" ht="16.5" customHeight="1">
       <c r="A16" s="10" t="s">
@@ -2364,9 +2220,7 @@
       <c r="W16" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="X16" s="17" t="s">
-        <v>190</v>
-      </c>
+      <c r="X16" s="17"/>
     </row>
     <row r="17" spans="1:24" ht="16.5" customHeight="1">
       <c r="A17" s="10" t="s">
@@ -2433,9 +2287,7 @@
       <c r="W17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="X17" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="X17" s="17"/>
     </row>
     <row r="18" spans="1:24" ht="16.5" customHeight="1">
       <c r="A18" s="10" t="s">
@@ -2500,9 +2352,7 @@
       <c r="W18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="X18" s="17" t="s">
-        <v>191</v>
-      </c>
+      <c r="X18" s="17"/>
     </row>
     <row r="19" spans="1:24" ht="16.5" customHeight="1">
       <c r="A19" s="2" t="s">
@@ -2565,9 +2415,7 @@
       <c r="W19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="X19" s="17" t="s">
-        <v>193</v>
-      </c>
+      <c r="X19" s="17"/>
     </row>
     <row r="20" spans="1:24" ht="16.5" customHeight="1">
       <c r="A20" s="17" t="s">
@@ -2629,9 +2477,7 @@
       <c r="W20" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="X20" s="17" t="s">
-        <v>194</v>
-      </c>
+      <c r="X20" s="17"/>
     </row>
     <row r="21" spans="1:24" ht="16.5" customHeight="1">
       <c r="A21" s="17" t="s">
@@ -2693,9 +2539,7 @@
       <c r="W21" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="X21" s="17" t="s">
-        <v>195</v>
-      </c>
+      <c r="X21" s="17"/>
     </row>
     <row r="22" spans="1:24" ht="16.5" customHeight="1">
       <c r="A22" s="17" t="s">
@@ -2754,9 +2598,7 @@
       <c r="W22" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="X22" s="17" t="s">
-        <v>196</v>
-      </c>
+      <c r="X22" s="17"/>
     </row>
     <row r="23" spans="1:24" ht="16.5" customHeight="1">
       <c r="A23" s="17" t="s">
@@ -2818,9 +2660,7 @@
       <c r="W23" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="X23" s="17" t="s">
-        <v>197</v>
-      </c>
+      <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" ht="16.5" customHeight="1">
       <c r="A24" s="17" t="s">
@@ -2885,9 +2725,7 @@
       <c r="W24" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="X24" s="17" t="s">
-        <v>198</v>
-      </c>
+      <c r="X24" s="17"/>
     </row>
     <row r="25" spans="1:24" ht="16.5" customHeight="1">
       <c r="A25" s="17" t="s">
@@ -2952,9 +2790,7 @@
       <c r="W25" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="X25" s="17" t="s">
-        <v>199</v>
-      </c>
+      <c r="X25" s="17"/>
     </row>
     <row r="26" spans="1:24" ht="16.5" customHeight="1">
       <c r="A26" s="17" t="s">
@@ -3014,9 +2850,7 @@
       <c r="W26" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="X26" s="17" t="s">
-        <v>200</v>
-      </c>
+      <c r="X26" s="17"/>
     </row>
     <row r="27" spans="1:24" ht="16.5" customHeight="1">
       <c r="A27" s="17" t="s">
@@ -3081,9 +2915,7 @@
       <c r="W27" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="X27" s="17" t="s">
-        <v>201</v>
-      </c>
+      <c r="X27" s="17"/>
     </row>
     <row r="28" spans="1:24" ht="16.5" customHeight="1">
       <c r="A28" s="1"/>
